--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 GE.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 GE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>Course</t>
   </si>
@@ -136,6 +136,27 @@
     <t>5.88%</t>
   </si>
   <si>
+    <t>GEOG-450</t>
+  </si>
+  <si>
+    <t>PROUT E</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>BRANNSTROM C</t>
+  </si>
+  <si>
+    <t>85.71%</t>
+  </si>
+  <si>
+    <t>14.29%</t>
+  </si>
+  <si>
     <t>GEOL-101</t>
   </si>
   <si>
@@ -178,6 +199,18 @@
     <t>72.00%</t>
   </si>
   <si>
+    <t>GEOL-306</t>
+  </si>
+  <si>
+    <t>TICE M</t>
+  </si>
+  <si>
+    <t>GEOL-311</t>
+  </si>
+  <si>
+    <t>MARCANTONIO F</t>
+  </si>
+  <si>
     <t>GEOL-491</t>
   </si>
   <si>
@@ -187,9 +220,6 @@
     <t>GIARDINO J</t>
   </si>
   <si>
-    <t>TICE M</t>
-  </si>
-  <si>
     <t>GEOS-484</t>
   </si>
   <si>
@@ -202,13 +232,13 @@
     <t>WIEDERWOHL C</t>
   </si>
   <si>
-    <t>76.74%</t>
-  </si>
-  <si>
-    <t>20.93%</t>
-  </si>
-  <si>
-    <t>2.33%</t>
+    <t>70.42%</t>
+  </si>
+  <si>
+    <t>25.35%</t>
+  </si>
+  <si>
+    <t>4.23%</t>
   </si>
 </sst>
 </file>
@@ -545,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,7 +810,7 @@
         <v>41</v>
       </c>
       <c r="C22" t="n">
-        <v>3.1313</v>
+        <v>3.8</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
@@ -789,49 +819,49 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="G22" t="s">
+      <c r="C23" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D23" t="s">
         <v>45</v>
       </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="E23" t="s">
         <v>46</v>
       </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" t="s">
+      <c r="A25" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2.769</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C26" t="n">
-        <v>2.769</v>
+        <v>3.1313</v>
       </c>
       <c r="D26" t="s">
         <v>49</v>
@@ -840,61 +870,61 @@
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>54</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.769</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2.769</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -902,103 +932,210 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="n">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D34" t="s">
         <v>21</v>
       </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" t="n">
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="n">
         <v>4</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D37" t="s">
         <v>21</v>
       </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" t="n">
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="n">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D40" t="s">
         <v>21</v>
       </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3.7713</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" t="s">
         <v>62</v>
       </c>
-      <c r="E38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.6712</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 GE.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 GE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ATMO-201</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>1.72%</t>
   </si>
   <si>
+    <t>1.69%</t>
+  </si>
+  <si>
     <t>ATMO-491</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>1.40%</t>
   </si>
   <si>
+    <t>0.69%</t>
+  </si>
+  <si>
     <t>GEOG-380</t>
   </si>
   <si>
@@ -134,6 +143,9 @@
   </si>
   <si>
     <t>5.88%</t>
+  </si>
+  <si>
+    <t>2.86%</t>
   </si>
   <si>
     <t>GEOG-450</t>
@@ -276,12 +288,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -575,15 +586,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,535 +619,598 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.385</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>3.155</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>2.755</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
         <v>2.997</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
         <v>3.8</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C23" t="n">
         <v>3.857</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C26" t="n">
         <v>3.1313</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C29" t="n">
         <v>2.769</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C30" t="n">
         <v>2.769</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C31" t="n">
         <v>3.28</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C41" t="n">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C48" t="n">
         <v>3.6712</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
